--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="235">
   <si>
     <t>Angela</t>
   </si>
@@ -162,6 +162,561 @@
   </si>
   <si>
     <t>08/02/1989</t>
+  </si>
+  <si>
+    <t>Lon</t>
+  </si>
+  <si>
+    <t>Willms</t>
+  </si>
+  <si>
+    <t>rubie.hamill@example.com</t>
+  </si>
+  <si>
+    <t>2WY%F#</t>
+  </si>
+  <si>
+    <t>04/23/1996</t>
+  </si>
+  <si>
+    <t>Josef</t>
+  </si>
+  <si>
+    <t>Schmidt</t>
+  </si>
+  <si>
+    <t>graham.wiegand@example.com</t>
+  </si>
+  <si>
+    <t>pG&amp;u!a</t>
+  </si>
+  <si>
+    <t>03/16/1996</t>
+  </si>
+  <si>
+    <t>Hugh</t>
+  </si>
+  <si>
+    <t>Marvin</t>
+  </si>
+  <si>
+    <t>carrol.langosh@example.com</t>
+  </si>
+  <si>
+    <t>#SQa#9</t>
+  </si>
+  <si>
+    <t>09/03/1982</t>
+  </si>
+  <si>
+    <t>Akiko</t>
+  </si>
+  <si>
+    <t>Lockman</t>
+  </si>
+  <si>
+    <t>tashina.kunze@example.com</t>
+  </si>
+  <si>
+    <t>1sEGga</t>
+  </si>
+  <si>
+    <t>05/17/1987</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>D'Amore</t>
+  </si>
+  <si>
+    <t>kip.boyer@example.com</t>
+  </si>
+  <si>
+    <t>1#RqI@</t>
+  </si>
+  <si>
+    <t>04/04/1985</t>
+  </si>
+  <si>
+    <t>Mariano</t>
+  </si>
+  <si>
+    <t>Cassin</t>
+  </si>
+  <si>
+    <t>rheba.swift@example.com</t>
+  </si>
+  <si>
+    <t>%uSa*1</t>
+  </si>
+  <si>
+    <t>08/10/1995</t>
+  </si>
+  <si>
+    <t>Brett</t>
+  </si>
+  <si>
+    <t>Schuster</t>
+  </si>
+  <si>
+    <t>carlee.cremin@example.com</t>
+  </si>
+  <si>
+    <t>V4&amp;M@$</t>
+  </si>
+  <si>
+    <t>11/29/1971</t>
+  </si>
+  <si>
+    <t>Elvis</t>
+  </si>
+  <si>
+    <t>Farrell</t>
+  </si>
+  <si>
+    <t>arline.crist@example.com</t>
+  </si>
+  <si>
+    <t>7^xvQh</t>
+  </si>
+  <si>
+    <t>05/11/1972</t>
+  </si>
+  <si>
+    <t>Larue</t>
+  </si>
+  <si>
+    <t>Vandervort</t>
+  </si>
+  <si>
+    <t>randy.king@example.com</t>
+  </si>
+  <si>
+    <t>!d*Z02</t>
+  </si>
+  <si>
+    <t>07/06/1964</t>
+  </si>
+  <si>
+    <t>Tyron</t>
+  </si>
+  <si>
+    <t>bernardo.hodkiewicz@example.com</t>
+  </si>
+  <si>
+    <t>2I&amp;O7#</t>
+  </si>
+  <si>
+    <t>07/24/1987</t>
+  </si>
+  <si>
+    <t>Bertram</t>
+  </si>
+  <si>
+    <t>carlos.denesik@example.com</t>
+  </si>
+  <si>
+    <t>T12z6V</t>
+  </si>
+  <si>
+    <t>06/09/2001</t>
+  </si>
+  <si>
+    <t>Harriet</t>
+  </si>
+  <si>
+    <t>Donnelly</t>
+  </si>
+  <si>
+    <t>gwendolyn.bayer@example.com</t>
+  </si>
+  <si>
+    <t>H5#QaR</t>
+  </si>
+  <si>
+    <t>08/17/1965</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Russel</t>
+  </si>
+  <si>
+    <t>dan.daugherty@example.com</t>
+  </si>
+  <si>
+    <t>5@tE0S</t>
+  </si>
+  <si>
+    <t>02/14/1985</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Auer</t>
+  </si>
+  <si>
+    <t>luther.adams@example.com</t>
+  </si>
+  <si>
+    <t>!&amp;*@DK</t>
+  </si>
+  <si>
+    <t>06/09/1997</t>
+  </si>
+  <si>
+    <t>Jimmy</t>
+  </si>
+  <si>
+    <t>Cummerata</t>
+  </si>
+  <si>
+    <t>erik.orn@example.com</t>
+  </si>
+  <si>
+    <t>8aN&amp;%9</t>
+  </si>
+  <si>
+    <t>08/23/1974</t>
+  </si>
+  <si>
+    <t>Maia</t>
+  </si>
+  <si>
+    <t>Jacobi</t>
+  </si>
+  <si>
+    <t>racquel.pouros@example.com</t>
+  </si>
+  <si>
+    <t>@wc0h!</t>
+  </si>
+  <si>
+    <t>01/20/1973</t>
+  </si>
+  <si>
+    <t>Carole</t>
+  </si>
+  <si>
+    <t>Maggio</t>
+  </si>
+  <si>
+    <t>curtis.schulist@example.com</t>
+  </si>
+  <si>
+    <t>FCJ@b#</t>
+  </si>
+  <si>
+    <t>09/16/1955</t>
+  </si>
+  <si>
+    <t>Newton</t>
+  </si>
+  <si>
+    <t>Nader</t>
+  </si>
+  <si>
+    <t>dannie.hermiston@example.com</t>
+  </si>
+  <si>
+    <t>rq04@V</t>
+  </si>
+  <si>
+    <t>09/07/1981</t>
+  </si>
+  <si>
+    <t>Gertude</t>
+  </si>
+  <si>
+    <t>Mayert</t>
+  </si>
+  <si>
+    <t>lauren.schinner@example.com</t>
+  </si>
+  <si>
+    <t>t&amp;VtnS</t>
+  </si>
+  <si>
+    <t>01/25/2002</t>
+  </si>
+  <si>
+    <t>Odell</t>
+  </si>
+  <si>
+    <t>Nienow</t>
+  </si>
+  <si>
+    <t>vida.cremin@example.com</t>
+  </si>
+  <si>
+    <t>30n&amp;g4</t>
+  </si>
+  <si>
+    <t>02/17/1982</t>
+  </si>
+  <si>
+    <t>Candie</t>
+  </si>
+  <si>
+    <t>Ledner</t>
+  </si>
+  <si>
+    <t>laure.wisozk@example.com</t>
+  </si>
+  <si>
+    <t>16$0Mq</t>
+  </si>
+  <si>
+    <t>10/14/1965</t>
+  </si>
+  <si>
+    <t>Jacqualine</t>
+  </si>
+  <si>
+    <t>Connelly</t>
+  </si>
+  <si>
+    <t>maximo.kessler@example.com</t>
+  </si>
+  <si>
+    <t>G6L$N#</t>
+  </si>
+  <si>
+    <t>06/25/1956</t>
+  </si>
+  <si>
+    <t>Robbie</t>
+  </si>
+  <si>
+    <t>Yost</t>
+  </si>
+  <si>
+    <t>henrietta.reichert@example.com</t>
+  </si>
+  <si>
+    <t>Qt0xL^</t>
+  </si>
+  <si>
+    <t>08/03/1994</t>
+  </si>
+  <si>
+    <t>Champlin</t>
+  </si>
+  <si>
+    <t>michaela.kunde@example.com</t>
+  </si>
+  <si>
+    <t>KuN2UN</t>
+  </si>
+  <si>
+    <t>08/26/1964</t>
+  </si>
+  <si>
+    <t>Donna</t>
+  </si>
+  <si>
+    <t>Koepp</t>
+  </si>
+  <si>
+    <t>weldon.goyette@example.com</t>
+  </si>
+  <si>
+    <t>7%!gKn</t>
+  </si>
+  <si>
+    <t>11/22/1976</t>
+  </si>
+  <si>
+    <t>Erasmo</t>
+  </si>
+  <si>
+    <t>McKenzie</t>
+  </si>
+  <si>
+    <t>chanell.reichert@example.com</t>
+  </si>
+  <si>
+    <t>BpDwJV</t>
+  </si>
+  <si>
+    <t>06/20/1955</t>
+  </si>
+  <si>
+    <t>Grayce</t>
+  </si>
+  <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>camila.yundt@example.com</t>
+  </si>
+  <si>
+    <t>3DKjx*1%30%V</t>
+  </si>
+  <si>
+    <t>10/23/1998</t>
+  </si>
+  <si>
+    <t>Kieth</t>
+  </si>
+  <si>
+    <t>Dooley</t>
+  </si>
+  <si>
+    <t>francis.hegmann@example.com</t>
+  </si>
+  <si>
+    <t>#l*ce2riWan4</t>
+  </si>
+  <si>
+    <t>11/29/1974</t>
+  </si>
+  <si>
+    <t>Lili</t>
+  </si>
+  <si>
+    <t>johnson.hessel@example.com</t>
+  </si>
+  <si>
+    <t>^g%*KJ#61L7</t>
+  </si>
+  <si>
+    <t>09/24/1982</t>
+  </si>
+  <si>
+    <t>Mavis</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>keneth.watsica@example.com</t>
+  </si>
+  <si>
+    <t>JX!P2KA&amp;c3U</t>
+  </si>
+  <si>
+    <t>02/18/1996</t>
+  </si>
+  <si>
+    <t>Pamula</t>
+  </si>
+  <si>
+    <t>Torp</t>
+  </si>
+  <si>
+    <t>lia.mosciski@example.com</t>
+  </si>
+  <si>
+    <t>o#H$a9</t>
+  </si>
+  <si>
+    <t>11/09/1971</t>
+  </si>
+  <si>
+    <t>Rogelio</t>
+  </si>
+  <si>
+    <t>Littel</t>
+  </si>
+  <si>
+    <t>chad.larson@example.com</t>
+  </si>
+  <si>
+    <t>O0&amp;8lmMH^</t>
+  </si>
+  <si>
+    <t>10/17/1986</t>
+  </si>
+  <si>
+    <t>Deana</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>september.schmidt@example.com</t>
+  </si>
+  <si>
+    <t>rW&amp;T$9</t>
+  </si>
+  <si>
+    <t>04/29/1967</t>
+  </si>
+  <si>
+    <t>Vida</t>
+  </si>
+  <si>
+    <t>Macejkovic</t>
+  </si>
+  <si>
+    <t>shiela.goldner@example.com</t>
+  </si>
+  <si>
+    <t>281qEvjx2d7</t>
+  </si>
+  <si>
+    <t>02/23/1973</t>
+  </si>
+  <si>
+    <t>Phillis</t>
+  </si>
+  <si>
+    <t>Keeling</t>
+  </si>
+  <si>
+    <t>george.rau@example.com</t>
+  </si>
+  <si>
+    <t>ot8##6v</t>
+  </si>
+  <si>
+    <t>05/28/1999</t>
+  </si>
+  <si>
+    <t>Merle</t>
+  </si>
+  <si>
+    <t>Harber</t>
+  </si>
+  <si>
+    <t>elfreda.ziemann@example.com</t>
+  </si>
+  <si>
+    <t>FHd4P&amp;</t>
+  </si>
+  <si>
+    <t>01/24/1965</t>
+  </si>
+  <si>
+    <t>Cherlyn</t>
+  </si>
+  <si>
+    <t>DuBuque</t>
+  </si>
+  <si>
+    <t>gonzalo.heller@example.com</t>
+  </si>
+  <si>
+    <t>80^DS5</t>
+  </si>
+  <si>
+    <t>08/17/1990</t>
+  </si>
+  <si>
+    <t>Sari</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>margery.smith@example.com</t>
+  </si>
+  <si>
+    <t>0#BHGj3MA</t>
   </si>
 </sst>
 </file>
@@ -206,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:E11"/>
+  <dimension ref="A2:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -382,6 +937,652 @@
         <v>49</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" t="s">
+        <v>199</v>
+      </c>
+      <c r="E42" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" t="s">
+        <v>218</v>
+      </c>
+      <c r="D46" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" t="s">
+        <v>223</v>
+      </c>
+      <c r="D47" t="s">
+        <v>224</v>
+      </c>
+      <c r="E47" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48" t="s">
+        <v>227</v>
+      </c>
+      <c r="C48" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" t="s">
+        <v>233</v>
+      </c>
+      <c r="D49" t="s">
+        <v>234</v>
+      </c>
+      <c r="E49" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="240">
   <si>
     <t>Angela</t>
   </si>
@@ -717,6 +717,21 @@
   </si>
   <si>
     <t>0#BHGj3MA</t>
+  </si>
+  <si>
+    <t>Casey</t>
+  </si>
+  <si>
+    <t>Friesen</t>
+  </si>
+  <si>
+    <t>erik.schuppe@example.com</t>
+  </si>
+  <si>
+    <t>&amp;pzZkg</t>
+  </si>
+  <si>
+    <t>09/05/1976</t>
   </si>
 </sst>
 </file>
@@ -761,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:E49"/>
+  <dimension ref="A2:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1583,6 +1598,23 @@
         <v>132</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B50" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50" t="s">
+        <v>238</v>
+      </c>
+      <c r="E50" t="s">
+        <v>239</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="305">
   <si>
     <t>Angela</t>
   </si>
@@ -732,6 +732,201 @@
   </si>
   <si>
     <t>09/05/1976</t>
+  </si>
+  <si>
+    <t>Otilia</t>
+  </si>
+  <si>
+    <t>Abernathy</t>
+  </si>
+  <si>
+    <t>diego.swift@example.com</t>
+  </si>
+  <si>
+    <t>il&amp;J7kSdFmn</t>
+  </si>
+  <si>
+    <t>09/19/1977</t>
+  </si>
+  <si>
+    <t>Kimbery</t>
+  </si>
+  <si>
+    <t>Cruickshank</t>
+  </si>
+  <si>
+    <t>salvador.cartwright@example.com</t>
+  </si>
+  <si>
+    <t>o!&amp;E1D</t>
+  </si>
+  <si>
+    <t>06/04/1983</t>
+  </si>
+  <si>
+    <t>Landon</t>
+  </si>
+  <si>
+    <t>Altenwerth</t>
+  </si>
+  <si>
+    <t>clinton.wisozk@example.com</t>
+  </si>
+  <si>
+    <t>zr3OT04L89R</t>
+  </si>
+  <si>
+    <t>01/05/1995</t>
+  </si>
+  <si>
+    <t>Rayna</t>
+  </si>
+  <si>
+    <t>Shields</t>
+  </si>
+  <si>
+    <t>joie.lemke@example.com</t>
+  </si>
+  <si>
+    <t>*GrjsZtEsLi</t>
+  </si>
+  <si>
+    <t>05/14/1978</t>
+  </si>
+  <si>
+    <t>Kurtis</t>
+  </si>
+  <si>
+    <t>Kilback</t>
+  </si>
+  <si>
+    <t>abel.cassin@example.com</t>
+  </si>
+  <si>
+    <t>9e6o3ab</t>
+  </si>
+  <si>
+    <t>05/12/1999</t>
+  </si>
+  <si>
+    <t>Lowell</t>
+  </si>
+  <si>
+    <t>Labadie</t>
+  </si>
+  <si>
+    <t>fredda.dubuque@example.com</t>
+  </si>
+  <si>
+    <t>$*tN@1</t>
+  </si>
+  <si>
+    <t>11/29/1972</t>
+  </si>
+  <si>
+    <t>Christy</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>charlene.corwin@example.com</t>
+  </si>
+  <si>
+    <t>#3@89$3xdt</t>
+  </si>
+  <si>
+    <t>09/27/1955</t>
+  </si>
+  <si>
+    <t>Tamera</t>
+  </si>
+  <si>
+    <t>Stiedemann</t>
+  </si>
+  <si>
+    <t>sierra.harris@example.com</t>
+  </si>
+  <si>
+    <t>*#$9YyU0Oj^</t>
+  </si>
+  <si>
+    <t>09/29/1992</t>
+  </si>
+  <si>
+    <t>Trey</t>
+  </si>
+  <si>
+    <t>Mayer</t>
+  </si>
+  <si>
+    <t>yesenia.schroeder@example.com</t>
+  </si>
+  <si>
+    <t>i9%q4T</t>
+  </si>
+  <si>
+    <t>05/18/1989</t>
+  </si>
+  <si>
+    <t>Lois</t>
+  </si>
+  <si>
+    <t>Kuvalis</t>
+  </si>
+  <si>
+    <t>qiana.koepp@example.com</t>
+  </si>
+  <si>
+    <t>I64li1sJe5C</t>
+  </si>
+  <si>
+    <t>02/03/1990</t>
+  </si>
+  <si>
+    <t>Reid</t>
+  </si>
+  <si>
+    <t>Treutel</t>
+  </si>
+  <si>
+    <t>micha.kilback@example.com</t>
+  </si>
+  <si>
+    <t>fvWbSRE</t>
+  </si>
+  <si>
+    <t>03/11/1955</t>
+  </si>
+  <si>
+    <t>Garret</t>
+  </si>
+  <si>
+    <t>Boyle</t>
+  </si>
+  <si>
+    <t>teodoro.gerhold@example.com</t>
+  </si>
+  <si>
+    <t>&amp;Jw#dW@Q6Mu$</t>
+  </si>
+  <si>
+    <t>01/02/1992</t>
+  </si>
+  <si>
+    <t>Fatima</t>
+  </si>
+  <si>
+    <t>O'Connell</t>
+  </si>
+  <si>
+    <t>tarah.crona@example.com</t>
+  </si>
+  <si>
+    <t>%^9*2Fs</t>
+  </si>
+  <si>
+    <t>07/03/1962</t>
   </si>
 </sst>
 </file>
@@ -776,7 +971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:E50"/>
+  <dimension ref="A2:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1615,6 +1810,227 @@
         <v>239</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" t="s">
+        <v>243</v>
+      </c>
+      <c r="E51" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" t="s">
+        <v>246</v>
+      </c>
+      <c r="C52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D52" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>250</v>
+      </c>
+      <c r="B53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" t="s">
+        <v>252</v>
+      </c>
+      <c r="D53" t="s">
+        <v>253</v>
+      </c>
+      <c r="E53" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>255</v>
+      </c>
+      <c r="B54" t="s">
+        <v>256</v>
+      </c>
+      <c r="C54" t="s">
+        <v>257</v>
+      </c>
+      <c r="D54" t="s">
+        <v>258</v>
+      </c>
+      <c r="E54" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>260</v>
+      </c>
+      <c r="B55" t="s">
+        <v>261</v>
+      </c>
+      <c r="C55" t="s">
+        <v>262</v>
+      </c>
+      <c r="D55" t="s">
+        <v>263</v>
+      </c>
+      <c r="E55" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>265</v>
+      </c>
+      <c r="B56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" t="s">
+        <v>267</v>
+      </c>
+      <c r="D56" t="s">
+        <v>268</v>
+      </c>
+      <c r="E56" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>270</v>
+      </c>
+      <c r="B57" t="s">
+        <v>271</v>
+      </c>
+      <c r="C57" t="s">
+        <v>272</v>
+      </c>
+      <c r="D57" t="s">
+        <v>273</v>
+      </c>
+      <c r="E57" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>275</v>
+      </c>
+      <c r="B58" t="s">
+        <v>276</v>
+      </c>
+      <c r="C58" t="s">
+        <v>277</v>
+      </c>
+      <c r="D58" t="s">
+        <v>278</v>
+      </c>
+      <c r="E58" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>280</v>
+      </c>
+      <c r="B59" t="s">
+        <v>281</v>
+      </c>
+      <c r="C59" t="s">
+        <v>282</v>
+      </c>
+      <c r="D59" t="s">
+        <v>283</v>
+      </c>
+      <c r="E59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>285</v>
+      </c>
+      <c r="B60" t="s">
+        <v>286</v>
+      </c>
+      <c r="C60" t="s">
+        <v>287</v>
+      </c>
+      <c r="D60" t="s">
+        <v>288</v>
+      </c>
+      <c r="E60" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>290</v>
+      </c>
+      <c r="B61" t="s">
+        <v>291</v>
+      </c>
+      <c r="C61" t="s">
+        <v>292</v>
+      </c>
+      <c r="D61" t="s">
+        <v>293</v>
+      </c>
+      <c r="E61" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>295</v>
+      </c>
+      <c r="B62" t="s">
+        <v>296</v>
+      </c>
+      <c r="C62" t="s">
+        <v>297</v>
+      </c>
+      <c r="D62" t="s">
+        <v>298</v>
+      </c>
+      <c r="E62" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>300</v>
+      </c>
+      <c r="B63" t="s">
+        <v>301</v>
+      </c>
+      <c r="C63" t="s">
+        <v>302</v>
+      </c>
+      <c r="D63" t="s">
+        <v>303</v>
+      </c>
+      <c r="E63" t="s">
+        <v>304</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="358">
   <si>
     <t>Angela</t>
   </si>
@@ -927,6 +927,165 @@
   </si>
   <si>
     <t>07/03/1962</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>erin.koss@example.com</t>
+  </si>
+  <si>
+    <t>mtNr7k@</t>
+  </si>
+  <si>
+    <t>04/10/1982</t>
+  </si>
+  <si>
+    <t>Gracie</t>
+  </si>
+  <si>
+    <t>Jerde</t>
+  </si>
+  <si>
+    <t>renaldo.leuschke@example.com</t>
+  </si>
+  <si>
+    <t>V1^E977BEEN</t>
+  </si>
+  <si>
+    <t>06/10/1979</t>
+  </si>
+  <si>
+    <t>Porfirio</t>
+  </si>
+  <si>
+    <t>Lemke</t>
+  </si>
+  <si>
+    <t>ignacia.schaden@example.com</t>
+  </si>
+  <si>
+    <t>BbhRYkO</t>
+  </si>
+  <si>
+    <t>03/03/1958</t>
+  </si>
+  <si>
+    <t>Antionette</t>
+  </si>
+  <si>
+    <t>sonja.brakus@example.com</t>
+  </si>
+  <si>
+    <t>d*skTnBwYA</t>
+  </si>
+  <si>
+    <t>12/21/1993</t>
+  </si>
+  <si>
+    <t>Ginger</t>
+  </si>
+  <si>
+    <t>britta.hermann@example.com</t>
+  </si>
+  <si>
+    <t>jOI6X6%n**xc</t>
+  </si>
+  <si>
+    <t>11/15/1958</t>
+  </si>
+  <si>
+    <t>Chanell</t>
+  </si>
+  <si>
+    <t>Pfeffer</t>
+  </si>
+  <si>
+    <t>nathan.bartoletti@example.com</t>
+  </si>
+  <si>
+    <t>e3EsWs4lF</t>
+  </si>
+  <si>
+    <t>02/08/1969</t>
+  </si>
+  <si>
+    <t>Lavonne</t>
+  </si>
+  <si>
+    <t>Gusikowski</t>
+  </si>
+  <si>
+    <t>shaun.lubowitz@example.com</t>
+  </si>
+  <si>
+    <t>&amp;786%@</t>
+  </si>
+  <si>
+    <t>03/10/1986</t>
+  </si>
+  <si>
+    <t>Armand</t>
+  </si>
+  <si>
+    <t>Emard</t>
+  </si>
+  <si>
+    <t>pauline.smitham@example.com</t>
+  </si>
+  <si>
+    <t>d8@!G74</t>
+  </si>
+  <si>
+    <t>08/29/1997</t>
+  </si>
+  <si>
+    <t>Lynwood</t>
+  </si>
+  <si>
+    <t>Reinger</t>
+  </si>
+  <si>
+    <t>setsuko.cassin@example.com</t>
+  </si>
+  <si>
+    <t>6#GO$i</t>
+  </si>
+  <si>
+    <t>02/13/1970</t>
+  </si>
+  <si>
+    <t>Bernardina</t>
+  </si>
+  <si>
+    <t>Bogisich</t>
+  </si>
+  <si>
+    <t>hershel.huel@example.com</t>
+  </si>
+  <si>
+    <t>21tu9OLE66p</t>
+  </si>
+  <si>
+    <t>06/06/1980</t>
+  </si>
+  <si>
+    <t>Delorse</t>
+  </si>
+  <si>
+    <t>Thiel</t>
+  </si>
+  <si>
+    <t>clinton.walker@example.com</t>
+  </si>
+  <si>
+    <t>A*ec*B</t>
+  </si>
+  <si>
+    <t>09/27/1991</t>
   </si>
 </sst>
 </file>
@@ -971,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:E63"/>
+  <dimension ref="A2:E74"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2031,6 +2190,193 @@
         <v>304</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>305</v>
+      </c>
+      <c r="B64" t="s">
+        <v>306</v>
+      </c>
+      <c r="C64" t="s">
+        <v>307</v>
+      </c>
+      <c r="D64" t="s">
+        <v>308</v>
+      </c>
+      <c r="E64" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>310</v>
+      </c>
+      <c r="B65" t="s">
+        <v>311</v>
+      </c>
+      <c r="C65" t="s">
+        <v>312</v>
+      </c>
+      <c r="D65" t="s">
+        <v>313</v>
+      </c>
+      <c r="E65" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>315</v>
+      </c>
+      <c r="B66" t="s">
+        <v>316</v>
+      </c>
+      <c r="C66" t="s">
+        <v>317</v>
+      </c>
+      <c r="D66" t="s">
+        <v>318</v>
+      </c>
+      <c r="E66" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>320</v>
+      </c>
+      <c r="B67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" t="s">
+        <v>321</v>
+      </c>
+      <c r="D67" t="s">
+        <v>322</v>
+      </c>
+      <c r="E67" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>324</v>
+      </c>
+      <c r="B68" t="s">
+        <v>276</v>
+      </c>
+      <c r="C68" t="s">
+        <v>325</v>
+      </c>
+      <c r="D68" t="s">
+        <v>326</v>
+      </c>
+      <c r="E68" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>328</v>
+      </c>
+      <c r="B69" t="s">
+        <v>329</v>
+      </c>
+      <c r="C69" t="s">
+        <v>330</v>
+      </c>
+      <c r="D69" t="s">
+        <v>331</v>
+      </c>
+      <c r="E69" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>333</v>
+      </c>
+      <c r="B70" t="s">
+        <v>334</v>
+      </c>
+      <c r="C70" t="s">
+        <v>335</v>
+      </c>
+      <c r="D70" t="s">
+        <v>336</v>
+      </c>
+      <c r="E70" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>338</v>
+      </c>
+      <c r="B71" t="s">
+        <v>339</v>
+      </c>
+      <c r="C71" t="s">
+        <v>340</v>
+      </c>
+      <c r="D71" t="s">
+        <v>341</v>
+      </c>
+      <c r="E71" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>343</v>
+      </c>
+      <c r="B72" t="s">
+        <v>344</v>
+      </c>
+      <c r="C72" t="s">
+        <v>345</v>
+      </c>
+      <c r="D72" t="s">
+        <v>346</v>
+      </c>
+      <c r="E72" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>348</v>
+      </c>
+      <c r="B73" t="s">
+        <v>349</v>
+      </c>
+      <c r="C73" t="s">
+        <v>350</v>
+      </c>
+      <c r="D73" t="s">
+        <v>351</v>
+      </c>
+      <c r="E73" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>353</v>
+      </c>
+      <c r="B74" t="s">
+        <v>354</v>
+      </c>
+      <c r="C74" t="s">
+        <v>355</v>
+      </c>
+      <c r="D74" t="s">
+        <v>356</v>
+      </c>
+      <c r="E74" t="s">
+        <v>357</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="363">
   <si>
     <t>Angela</t>
   </si>
@@ -1086,6 +1086,21 @@
   </si>
   <si>
     <t>09/27/1991</t>
+  </si>
+  <si>
+    <t>Cliff</t>
+  </si>
+  <si>
+    <t>Fritsch</t>
+  </si>
+  <si>
+    <t>alberto.gulgowski@example.com</t>
+  </si>
+  <si>
+    <t>DO5LaP%mZ</t>
+  </si>
+  <si>
+    <t>04/16/1979</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1145,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:E74"/>
+  <dimension ref="A2:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2377,6 +2392,23 @@
         <v>357</v>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>358</v>
+      </c>
+      <c r="B75" t="s">
+        <v>359</v>
+      </c>
+      <c r="C75" t="s">
+        <v>360</v>
+      </c>
+      <c r="D75" t="s">
+        <v>361</v>
+      </c>
+      <c r="E75" t="s">
+        <v>362</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="403">
   <si>
     <t>Angela</t>
   </si>
@@ -1101,6 +1101,126 @@
   </si>
   <si>
     <t>04/16/1979</t>
+  </si>
+  <si>
+    <t>Albertine</t>
+  </si>
+  <si>
+    <t>Gorczany</t>
+  </si>
+  <si>
+    <t>marlon.koepp@example.com</t>
+  </si>
+  <si>
+    <t>4a6tK!2&amp;klW</t>
+  </si>
+  <si>
+    <t>01/27/1981</t>
+  </si>
+  <si>
+    <t>Lacresha</t>
+  </si>
+  <si>
+    <t>Johnston</t>
+  </si>
+  <si>
+    <t>youlanda.carter@example.com</t>
+  </si>
+  <si>
+    <t>^$iI7I</t>
+  </si>
+  <si>
+    <t>07/24/1991</t>
+  </si>
+  <si>
+    <t>Glenn</t>
+  </si>
+  <si>
+    <t>Zemlak</t>
+  </si>
+  <si>
+    <t>loris.padberg@example.com</t>
+  </si>
+  <si>
+    <t>JRF4094AF</t>
+  </si>
+  <si>
+    <t>09/04/1956</t>
+  </si>
+  <si>
+    <t>Johnnie</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>deloise.hammes@example.com</t>
+  </si>
+  <si>
+    <t>4Ig7NHH4c</t>
+  </si>
+  <si>
+    <t>05/29/1986</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Mills</t>
+  </si>
+  <si>
+    <t>jamison.olson@example.com</t>
+  </si>
+  <si>
+    <t>&amp;*@3X9@d</t>
+  </si>
+  <si>
+    <t>01/05/1967</t>
+  </si>
+  <si>
+    <t>Brice</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>emmie.fahey@example.com</t>
+  </si>
+  <si>
+    <t>zsRV#sjw</t>
+  </si>
+  <si>
+    <t>10/04/1982</t>
+  </si>
+  <si>
+    <t>Beaulah</t>
+  </si>
+  <si>
+    <t>Lehner</t>
+  </si>
+  <si>
+    <t>ka.corkery@example.com</t>
+  </si>
+  <si>
+    <t>7Tb4139KuA</t>
+  </si>
+  <si>
+    <t>06/11/1988</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Reichert</t>
+  </si>
+  <si>
+    <t>garry.mccullough@example.com</t>
+  </si>
+  <si>
+    <t>2#v@3x1</t>
+  </si>
+  <si>
+    <t>01/22/1964</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:E75"/>
+  <dimension ref="A2:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2409,6 +2529,142 @@
         <v>362</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>363</v>
+      </c>
+      <c r="B76" t="s">
+        <v>364</v>
+      </c>
+      <c r="C76" t="s">
+        <v>365</v>
+      </c>
+      <c r="D76" t="s">
+        <v>366</v>
+      </c>
+      <c r="E76" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>368</v>
+      </c>
+      <c r="B77" t="s">
+        <v>369</v>
+      </c>
+      <c r="C77" t="s">
+        <v>370</v>
+      </c>
+      <c r="D77" t="s">
+        <v>371</v>
+      </c>
+      <c r="E77" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>373</v>
+      </c>
+      <c r="B78" t="s">
+        <v>374</v>
+      </c>
+      <c r="C78" t="s">
+        <v>375</v>
+      </c>
+      <c r="D78" t="s">
+        <v>376</v>
+      </c>
+      <c r="E78" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>378</v>
+      </c>
+      <c r="B79" t="s">
+        <v>379</v>
+      </c>
+      <c r="C79" t="s">
+        <v>380</v>
+      </c>
+      <c r="D79" t="s">
+        <v>381</v>
+      </c>
+      <c r="E79" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>383</v>
+      </c>
+      <c r="B80" t="s">
+        <v>384</v>
+      </c>
+      <c r="C80" t="s">
+        <v>385</v>
+      </c>
+      <c r="D80" t="s">
+        <v>386</v>
+      </c>
+      <c r="E80" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>388</v>
+      </c>
+      <c r="B81" t="s">
+        <v>389</v>
+      </c>
+      <c r="C81" t="s">
+        <v>390</v>
+      </c>
+      <c r="D81" t="s">
+        <v>391</v>
+      </c>
+      <c r="E81" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>393</v>
+      </c>
+      <c r="B82" t="s">
+        <v>394</v>
+      </c>
+      <c r="C82" t="s">
+        <v>395</v>
+      </c>
+      <c r="D82" t="s">
+        <v>396</v>
+      </c>
+      <c r="E82" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>398</v>
+      </c>
+      <c r="B83" t="s">
+        <v>399</v>
+      </c>
+      <c r="C83" t="s">
+        <v>400</v>
+      </c>
+      <c r="D83" t="s">
+        <v>401</v>
+      </c>
+      <c r="E83" t="s">
+        <v>402</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
